--- a/Аспекты тестов/Набор тестов для функции isLineHeadOfDefinition.xlsx
+++ b/Аспекты тестов/Набор тестов для функции isLineHeadOfDefinition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Хороший набор тестов" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Наименование</t>
   </si>
@@ -325,6 +324,12 @@
   </si>
   <si>
     <t>строка с именем функции является именем перeменной</t>
+  </si>
+  <si>
+    <t>вызов функции похож на заголовок определения</t>
+  </si>
+  <si>
+    <t>"while(someFunction()) return 0;"</t>
   </si>
 </sst>
 </file>
@@ -6371,7 +6376,7 @@
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8555,8 +8560,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>

--- a/Аспекты тестов/Набор тестов для функции isLineHeadOfDefinition.xlsx
+++ b/Аспекты тестов/Набор тестов для функции isLineHeadOfDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Наименование</t>
   </si>
@@ -153,30 +153,6 @@
   </si>
   <si>
     <t>Закомментирована ли строка</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">прототип, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>заголовок определения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, имя перменной, вызов функции</t>
-    </r>
   </si>
   <si>
     <r>
@@ -331,12 +307,68 @@
   <si>
     <t>"while(someFunction()) return 0;"</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">прототип, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>заголовок определения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, имя переменной вызов функции</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пробелы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, табуляция, вперемешку</t>
+    </r>
+  </si>
+  <si>
+    <t>Пробельные разделители в строке</t>
+  </si>
+  <si>
+    <t>в строке в качестве пробельных разделителей использована табуляция</t>
+  </si>
+  <si>
+    <t>"int\tsomeFunction\t(\tbool\targ1,\tfloat\targ2\t)\t"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -450,6 +482,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
@@ -911,7 +951,7 @@
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2222,10 +2262,10 @@
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -2749,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -3011,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -3273,7 +3313,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -3531,8 +3571,11 @@
       <c r="IV10" s="19"/>
     </row>
     <row r="11" spans="1:256" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
-        <v>5</v>
+      <c r="A11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -3790,8 +3833,8 @@
       <c r="IV11" s="19"/>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
-        <v>7</v>
+      <c r="A12" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>10</v>
@@ -4053,7 +4096,7 @@
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>8</v>
@@ -4314,7 +4357,9 @@
       <c r="IV13" s="19"/>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="29"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4572,6 +4617,7 @@
       <c r="IV14" s="19"/>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.45">
+      <c r="A15" s="25"/>
       <c r="B15" s="29"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -6376,7 +6422,7 @@
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7687,10 +7733,10 @@
     </row>
     <row r="6" spans="1:256" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7949,10 +7995,10 @@
     </row>
     <row r="7" spans="1:256" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8211,10 +8257,10 @@
     </row>
     <row r="8" spans="1:256" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8473,103 +8519,107 @@
     </row>
     <row r="9" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>52</v>
+    </row>
+    <row r="21" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
